--- a/ProjectFile/建心房产代理管理系统功能清单.xlsx
+++ b/ProjectFile/建心房产代理管理系统功能清单.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="功能清单" sheetId="1" r:id="rId1"/>
     <sheet name="系统截图" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -730,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -946,6 +946,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>852001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4209</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -967,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ProjectFile/建心房产代理管理系统功能清单.xlsx
+++ b/ProjectFile/建心房产代理管理系统功能清单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,7 +10,7 @@
     <sheet name="功能清单" sheetId="1" r:id="rId1"/>
     <sheet name="系统截图" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>系统设置</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>顶部功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业类别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名片组设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>细分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +378,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -730,27 +763,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -758,10 +793,13 @@
         <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>26</v>
       </c>
@@ -769,203 +807,262 @@
         <v>27</v>
       </c>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="2" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="2" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="2" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="2" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>852001</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>4209</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="8">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
